--- a/brise_plandok/annotation_process/input/annotation_full_template.xlsx
+++ b/brise_plandok/annotation_process/input/annotation_full_template.xlsx
@@ -427,9 +427,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -568,40 +569,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,7 +618,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -774,21 +779,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMJ1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="64.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="84.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="36.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="35.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="16.11"/>
@@ -838,216 +843,215 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="65" style="1" width="35.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="3" width="16.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="68" style="1" width="8.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1022" style="4" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="64.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="9" customFormat="true" ht="64.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="5" t="s">
+      <c r="W1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AA1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AE1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AI1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AM1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AQ1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AU1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AY1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AY1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="BC1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BC1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="BG1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BG1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="BK1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BK1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="BO1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="64.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="64.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="BO1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMH1" s="4"/>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576 K1:K1048576 O1:O1048576 S1:S1048576 W1:W1048576 AA1:AA1048576 AE1:AE1048576 AI1:AI1048576 AM1:AM1048576 AQ1:AQ1048576 AU1:AU1048576 AY1:AY1048576 BC1:BC1048576 BG1:BG1048576 BK1:BK1048576 BO1:BO1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -1095,7 +1099,7 @@
       <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.55"/>
@@ -1121,72 +1125,72 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="10" t="s">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="10"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -1239,7 +1243,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -1281,12 +1285,12 @@
       <c r="U5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -1333,7 +1337,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -1371,7 +1375,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -1406,7 +1410,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="0" t="s">
@@ -1435,7 +1439,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="0" t="s">
@@ -1461,7 +1465,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
@@ -1484,7 +1488,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -1498,7 +1502,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -1512,7 +1516,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="0" t="s">
@@ -1523,7 +1527,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>115</v>
       </c>
       <c r="I15" s="0" t="s">
@@ -1534,7 +1538,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="P16" s="0" t="s">
         <v>118</v>
       </c>
